--- a/pkg1.xlsx
+++ b/pkg1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -104,48 +104,6 @@
   </x:si>
   <x:si>
     <x:t>Saved changes successfully for the Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>View Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click Account tab,  and click on existing Account name to view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shows fields for Account selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Account name to View the Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Details of Account successfully displayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edit Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click Account tab,  and click on existing Account to modify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shows fields to modify for an existing Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_4.TestCase_1</x:t>
   </x:si>
   <x:si>
     <x:t>Delete Account</x:t>
@@ -244,8 +202,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H15" totalsRowShown="0">
-  <x:autoFilter ref="A1:H15"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H8" totalsRowShown="0">
+  <x:autoFilter ref="A1:H8"/>
   <x:tableColumns count="8">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -548,7 +506,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H15"/>
+  <x:dimension ref="A1:H8"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -560,7 +518,7 @@
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="33.980625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="56.980625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="53.130625" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="43.130625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -686,13 +644,13 @@
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>32</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>11</x:v>
@@ -702,10 +660,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -718,144 +676,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:8">
-      <x:c r="A9" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s"/>
-      <x:c r="F9" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:8">
-      <x:c r="A10" s="0" t="s"/>
-      <x:c r="B10" s="0" t="s"/>
-      <x:c r="C10" s="0" t="s"/>
-      <x:c r="D10" s="0" t="s"/>
-      <x:c r="E10" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:8">
-      <x:c r="A11" s="0" t="s"/>
-      <x:c r="B11" s="0" t="s"/>
-      <x:c r="C11" s="0" t="s"/>
-      <x:c r="D11" s="0" t="s"/>
-      <x:c r="E11" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:8">
-      <x:c r="A12" s="0" t="s"/>
-      <x:c r="B12" s="0" t="s"/>
-      <x:c r="C12" s="0" t="s"/>
-      <x:c r="D12" s="0" t="s"/>
-      <x:c r="E12" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:8">
-      <x:c r="A13" s="0" t="s"/>
-      <x:c r="B13" s="0" t="s"/>
-      <x:c r="C13" s="0" t="s"/>
-      <x:c r="D13" s="0" t="s"/>
-      <x:c r="E13" s="0" t="s"/>
-      <x:c r="F13" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H13" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:8">
-      <x:c r="A14" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s"/>
-      <x:c r="F14" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:8">
-      <x:c r="A15" s="0" t="s"/>
-      <x:c r="B15" s="0" t="s"/>
-      <x:c r="C15" s="0" t="s"/>
-      <x:c r="D15" s="0" t="s"/>
-      <x:c r="E15" s="0" t="s"/>
-      <x:c r="F15" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
